--- a/PythonResources/Data/Consumption/Sympheny/futu_1560_coo.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/futu_1560_coo.xlsx
@@ -6231,7 +6231,7 @@
         <v>736</v>
       </c>
       <c r="B736">
-        <v>6.717803655299223</v>
+        <v>6.717803655299222</v>
       </c>
     </row>
     <row r="737" spans="1:2">
@@ -7183,7 +7183,7 @@
         <v>855</v>
       </c>
       <c r="B855">
-        <v>0.8986114880330304</v>
+        <v>0.8986114880330303</v>
       </c>
     </row>
     <row r="856" spans="1:2">
@@ -7375,7 +7375,7 @@
         <v>879</v>
       </c>
       <c r="B879">
-        <v>6.076212537461807</v>
+        <v>6.076212537461806</v>
       </c>
     </row>
     <row r="880" spans="1:2">
@@ -8919,7 +8919,7 @@
         <v>1072</v>
       </c>
       <c r="B1072">
-        <v>0.5624179767430547</v>
+        <v>0.5624179767430546</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
@@ -11407,7 +11407,7 @@
         <v>1383</v>
       </c>
       <c r="B1383">
-        <v>0.6618833565543287</v>
+        <v>0.6618833565543286</v>
       </c>
     </row>
     <row r="1384" spans="1:2">
@@ -11975,7 +11975,7 @@
         <v>1454</v>
       </c>
       <c r="B1454">
-        <v>0.3148344939923368</v>
+        <v>0.3148344939923367</v>
       </c>
     </row>
     <row r="1455" spans="1:2">
@@ -12567,7 +12567,7 @@
         <v>1528</v>
       </c>
       <c r="B1528">
-        <v>9.447643152014191</v>
+        <v>9.447643152014187</v>
       </c>
     </row>
     <row r="1529" spans="1:2">
@@ -12575,7 +12575,7 @@
         <v>1529</v>
       </c>
       <c r="B1529">
-        <v>10.2882001979988</v>
+        <v>10.28820019799879</v>
       </c>
     </row>
     <row r="1530" spans="1:2">
@@ -13303,7 +13303,7 @@
         <v>1620</v>
       </c>
       <c r="B1620">
-        <v>0.4450137186553198</v>
+        <v>0.4450137186553197</v>
       </c>
     </row>
     <row r="1621" spans="1:2">
@@ -13335,7 +13335,7 @@
         <v>1624</v>
       </c>
       <c r="B1624">
-        <v>13.33227046236646</v>
+        <v>13.33227046236645</v>
       </c>
     </row>
     <row r="1625" spans="1:2">
@@ -14487,7 +14487,7 @@
         <v>1768</v>
       </c>
       <c r="B1768">
-        <v>58.15906840922799</v>
+        <v>58.15906840922798</v>
       </c>
     </row>
     <row r="1769" spans="1:2">
@@ -14503,7 +14503,7 @@
         <v>1770</v>
       </c>
       <c r="B1770">
-        <v>41.61725977406568</v>
+        <v>41.61725977406567</v>
       </c>
     </row>
     <row r="1771" spans="1:2">
@@ -15615,7 +15615,7 @@
         <v>1909</v>
       </c>
       <c r="B1909">
-        <v>1.12152132003885</v>
+        <v>1.121521320038849</v>
       </c>
     </row>
     <row r="1910" spans="1:2">
@@ -15791,7 +15791,7 @@
         <v>1931</v>
       </c>
       <c r="B1931">
-        <v>6.866713050043053</v>
+        <v>6.866713050043052</v>
       </c>
     </row>
     <row r="1932" spans="1:2">
@@ -17303,7 +17303,7 @@
         <v>2120</v>
       </c>
       <c r="B2120">
-        <v>0.366450165321373</v>
+        <v>0.3664501653213729</v>
       </c>
     </row>
     <row r="2121" spans="1:2">
@@ -17375,7 +17375,7 @@
         <v>2129</v>
       </c>
       <c r="B2129">
-        <v>63.11431353091402</v>
+        <v>63.11431353091401</v>
       </c>
     </row>
     <row r="2130" spans="1:2">
@@ -18095,7 +18095,7 @@
         <v>2219</v>
       </c>
       <c r="B2219">
-        <v>0.803835244840338</v>
+        <v>0.8038352448403379</v>
       </c>
     </row>
     <row r="2220" spans="1:2">
@@ -19303,7 +19303,7 @@
         <v>2370</v>
       </c>
       <c r="B2370">
-        <v>79.05122354227932</v>
+        <v>79.0512235422793</v>
       </c>
     </row>
     <row r="2371" spans="1:2">
@@ -19391,7 +19391,7 @@
         <v>2381</v>
       </c>
       <c r="B2381">
-        <v>4.580172806407237</v>
+        <v>4.580172806407236</v>
       </c>
     </row>
     <row r="2382" spans="1:2">
@@ -19407,7 +19407,7 @@
         <v>2383</v>
       </c>
       <c r="B2383">
-        <v>4.011116770638503</v>
+        <v>4.011116770638502</v>
       </c>
     </row>
     <row r="2384" spans="1:2">
@@ -19447,7 +19447,7 @@
         <v>2388</v>
       </c>
       <c r="B2388">
-        <v>68.92679144068448</v>
+        <v>68.92679144068447</v>
       </c>
     </row>
     <row r="2389" spans="1:2">
@@ -19655,7 +19655,7 @@
         <v>2414</v>
       </c>
       <c r="B2414">
-        <v>33.01386636312323</v>
+        <v>33.01386636312322</v>
       </c>
     </row>
     <row r="2415" spans="1:2">
@@ -19671,7 +19671,7 @@
         <v>2416</v>
       </c>
       <c r="B2416">
-        <v>66.34102566657543</v>
+        <v>66.34102566657542</v>
       </c>
     </row>
     <row r="2417" spans="1:2">
@@ -19815,7 +19815,7 @@
         <v>2434</v>
       </c>
       <c r="B2434">
-        <v>5.888090237745089</v>
+        <v>5.888090237745088</v>
       </c>
     </row>
     <row r="2435" spans="1:2">
@@ -19879,7 +19879,7 @@
         <v>2442</v>
       </c>
       <c r="B2442">
-        <v>57.06386193775055</v>
+        <v>57.06386193775054</v>
       </c>
     </row>
     <row r="2443" spans="1:2">
@@ -20583,7 +20583,7 @@
         <v>2530</v>
       </c>
       <c r="B2530">
-        <v>87.45620786004804</v>
+        <v>87.45620786004802</v>
       </c>
     </row>
     <row r="2531" spans="1:2">
@@ -20599,7 +20599,7 @@
         <v>2532</v>
       </c>
       <c r="B2532">
-        <v>86.16728143201544</v>
+        <v>86.16728143201543</v>
       </c>
     </row>
     <row r="2533" spans="1:2">
@@ -20807,7 +20807,7 @@
         <v>2558</v>
       </c>
       <c r="B2558">
-        <v>72.38415048377237</v>
+        <v>72.38415048377236</v>
       </c>
     </row>
     <row r="2559" spans="1:2">
@@ -20831,7 +20831,7 @@
         <v>2561</v>
       </c>
       <c r="B2561">
-        <v>93.41258364980122</v>
+        <v>93.41258364980121</v>
       </c>
     </row>
     <row r="2562" spans="1:2">
@@ -20983,7 +20983,7 @@
         <v>2580</v>
       </c>
       <c r="B2580">
-        <v>78.93399512681478</v>
+        <v>78.93399512681476</v>
       </c>
     </row>
     <row r="2581" spans="1:2">
@@ -21015,7 +21015,7 @@
         <v>2584</v>
       </c>
       <c r="B2584">
-        <v>88.91540856154288</v>
+        <v>88.91540856154286</v>
       </c>
     </row>
     <row r="2585" spans="1:2">
@@ -21375,7 +21375,7 @@
         <v>2629</v>
       </c>
       <c r="B2629">
-        <v>40.55751489826626</v>
+        <v>40.55751489826625</v>
       </c>
     </row>
     <row r="2630" spans="1:2">
@@ -21399,7 +21399,7 @@
         <v>2632</v>
       </c>
       <c r="B2632">
-        <v>91.77988489341888</v>
+        <v>91.77988489341884</v>
       </c>
     </row>
     <row r="2633" spans="1:2">
@@ -21919,7 +21919,7 @@
         <v>2697</v>
       </c>
       <c r="B2697">
-        <v>4.626712487346659</v>
+        <v>4.626712487346658</v>
       </c>
     </row>
     <row r="2698" spans="1:2">
@@ -22135,7 +22135,7 @@
         <v>2724</v>
       </c>
       <c r="B2724">
-        <v>49.05628194840661</v>
+        <v>49.0562819484066</v>
       </c>
     </row>
     <row r="2725" spans="1:2">
@@ -22311,7 +22311,7 @@
         <v>2746</v>
       </c>
       <c r="B2746">
-        <v>81.03883132648056</v>
+        <v>81.03883132648055</v>
       </c>
     </row>
     <row r="2747" spans="1:2">
@@ -22359,7 +22359,7 @@
         <v>2752</v>
       </c>
       <c r="B2752">
-        <v>122.3055781383073</v>
+        <v>122.3055781383072</v>
       </c>
     </row>
     <row r="2753" spans="1:2">
@@ -22487,7 +22487,7 @@
         <v>2768</v>
       </c>
       <c r="B2768">
-        <v>72.07818431940993</v>
+        <v>72.07818431940991</v>
       </c>
     </row>
     <row r="2769" spans="1:2">
@@ -22727,7 +22727,7 @@
         <v>2798</v>
       </c>
       <c r="B2798">
-        <v>92.562091495606</v>
+        <v>92.56209149560598</v>
       </c>
     </row>
     <row r="2799" spans="1:2">
@@ -23311,7 +23311,7 @@
         <v>2871</v>
       </c>
       <c r="B2871">
-        <v>81.675381622453</v>
+        <v>81.67538162245299</v>
       </c>
     </row>
     <row r="2872" spans="1:2">
@@ -23471,7 +23471,7 @@
         <v>2891</v>
       </c>
       <c r="B2891">
-        <v>37.60453111271454</v>
+        <v>37.60453111271453</v>
       </c>
     </row>
     <row r="2892" spans="1:2">
@@ -23863,7 +23863,7 @@
         <v>2940</v>
       </c>
       <c r="B2940">
-        <v>66.32314833321709</v>
+        <v>66.32314833321708</v>
       </c>
     </row>
     <row r="2941" spans="1:2">
@@ -23911,7 +23911,7 @@
         <v>2946</v>
       </c>
       <c r="B2946">
-        <v>105.580307032943</v>
+        <v>105.5803070329429</v>
       </c>
     </row>
     <row r="2947" spans="1:2">
@@ -23999,7 +23999,7 @@
         <v>2957</v>
       </c>
       <c r="B2957">
-        <v>45.19682944027535</v>
+        <v>45.19682944027534</v>
       </c>
     </row>
     <row r="2958" spans="1:2">
@@ -24303,7 +24303,7 @@
         <v>2995</v>
       </c>
       <c r="B2995">
-        <v>34.63425613588181</v>
+        <v>34.6342561358818</v>
       </c>
     </row>
     <row r="2996" spans="1:2">
@@ -24479,7 +24479,7 @@
         <v>3017</v>
       </c>
       <c r="B3017">
-        <v>59.30028703377527</v>
+        <v>59.30028703377526</v>
       </c>
     </row>
     <row r="3018" spans="1:2">
@@ -24503,7 +24503,7 @@
         <v>3020</v>
       </c>
       <c r="B3020">
-        <v>21.11222217598213</v>
+        <v>21.11222217598212</v>
       </c>
     </row>
     <row r="3021" spans="1:2">
@@ -24607,7 +24607,7 @@
         <v>3033</v>
       </c>
       <c r="B3033">
-        <v>157.479084985326</v>
+        <v>157.4790849853259</v>
       </c>
     </row>
     <row r="3034" spans="1:2">
@@ -25447,7 +25447,7 @@
         <v>3138</v>
       </c>
       <c r="B3138">
-        <v>98.65357303418206</v>
+        <v>98.65357303418205</v>
       </c>
     </row>
     <row r="3139" spans="1:2">
@@ -25975,7 +25975,7 @@
         <v>3204</v>
       </c>
       <c r="B3204">
-        <v>56.41177887672905</v>
+        <v>56.41177887672904</v>
       </c>
     </row>
     <row r="3205" spans="1:2">
@@ -26135,7 +26135,7 @@
         <v>3224</v>
       </c>
       <c r="B3224">
-        <v>49.13277348949722</v>
+        <v>49.13277348949721</v>
       </c>
     </row>
     <row r="3225" spans="1:2">
@@ -26159,7 +26159,7 @@
         <v>3227</v>
       </c>
       <c r="B3227">
-        <v>77.93520902705691</v>
+        <v>77.9352090270569</v>
       </c>
     </row>
     <row r="3228" spans="1:2">
@@ -26175,7 +26175,7 @@
         <v>3229</v>
       </c>
       <c r="B3229">
-        <v>72.98816989445341</v>
+        <v>72.98816989445339</v>
       </c>
     </row>
     <row r="3230" spans="1:2">
@@ -26319,7 +26319,7 @@
         <v>3247</v>
       </c>
       <c r="B3247">
-        <v>39.15897990177432</v>
+        <v>39.15897990177431</v>
       </c>
     </row>
     <row r="3248" spans="1:2">
@@ -26351,7 +26351,7 @@
         <v>3251</v>
       </c>
       <c r="B3251">
-        <v>71.72708521509364</v>
+        <v>71.72708521509362</v>
       </c>
     </row>
     <row r="3252" spans="1:2">
@@ -26359,7 +26359,7 @@
         <v>3252</v>
       </c>
       <c r="B3252">
-        <v>62.66620791280082</v>
+        <v>62.66620791280081</v>
       </c>
     </row>
     <row r="3253" spans="1:2">
@@ -26511,7 +26511,7 @@
         <v>3271</v>
       </c>
       <c r="B3271">
-        <v>52.62295648891518</v>
+        <v>52.62295648891517</v>
       </c>
     </row>
     <row r="3272" spans="1:2">
@@ -26527,7 +26527,7 @@
         <v>3273</v>
       </c>
       <c r="B3273">
-        <v>88.6589714027142</v>
+        <v>88.65897140271419</v>
       </c>
     </row>
     <row r="3274" spans="1:2">
@@ -26559,7 +26559,7 @@
         <v>3277</v>
       </c>
       <c r="B3277">
-        <v>76.43966751676807</v>
+        <v>76.43966751676805</v>
       </c>
     </row>
     <row r="3278" spans="1:2">
@@ -26727,7 +26727,7 @@
         <v>3298</v>
       </c>
       <c r="B3298">
-        <v>66.82986815906256</v>
+        <v>66.82986815906254</v>
       </c>
     </row>
     <row r="3299" spans="1:2">
@@ -26735,7 +26735,7 @@
         <v>3299</v>
       </c>
       <c r="B3299">
-        <v>69.96660748585494</v>
+        <v>69.96660748585492</v>
       </c>
     </row>
     <row r="3300" spans="1:2">
@@ -26743,7 +26743,7 @@
         <v>3300</v>
       </c>
       <c r="B3300">
-        <v>68.48366803022853</v>
+        <v>68.48366803022851</v>
       </c>
     </row>
     <row r="3301" spans="1:2">
@@ -26759,7 +26759,7 @@
         <v>3302</v>
       </c>
       <c r="B3302">
-        <v>91.59642242321686</v>
+        <v>91.59642242321684</v>
       </c>
     </row>
     <row r="3303" spans="1:2">
@@ -26959,7 +26959,7 @@
         <v>3327</v>
       </c>
       <c r="B3327">
-        <v>6.988718523437771</v>
+        <v>6.98871852343777</v>
       </c>
     </row>
     <row r="3328" spans="1:2">
@@ -27175,7 +27175,7 @@
         <v>3354</v>
       </c>
       <c r="B3354">
-        <v>32.72079532446188</v>
+        <v>32.72079532446187</v>
       </c>
     </row>
     <row r="3355" spans="1:2">
@@ -27343,7 +27343,7 @@
         <v>3375</v>
       </c>
       <c r="B3375">
-        <v>135.945397348645</v>
+        <v>135.9453973486449</v>
       </c>
     </row>
     <row r="3376" spans="1:2">
@@ -27471,7 +27471,7 @@
         <v>3391</v>
       </c>
       <c r="B3391">
-        <v>88.2457412382017</v>
+        <v>88.24574123820169</v>
       </c>
     </row>
     <row r="3392" spans="1:2">
@@ -27503,7 +27503,7 @@
         <v>3395</v>
       </c>
       <c r="B3395">
-        <v>135.5016877961117</v>
+        <v>135.5016877961116</v>
       </c>
     </row>
     <row r="3396" spans="1:2">
@@ -27543,7 +27543,7 @@
         <v>3400</v>
       </c>
       <c r="B3400">
-        <v>173.7486306255719</v>
+        <v>173.7486306255718</v>
       </c>
     </row>
     <row r="3401" spans="1:2">
@@ -27871,7 +27871,7 @@
         <v>3441</v>
       </c>
       <c r="B3441">
-        <v>67.29936796299803</v>
+        <v>67.29936796299802</v>
       </c>
     </row>
     <row r="3442" spans="1:2">
@@ -27879,7 +27879,7 @@
         <v>3442</v>
       </c>
       <c r="B3442">
-        <v>77.0899921515576</v>
+        <v>77.08999215155758</v>
       </c>
     </row>
     <row r="3443" spans="1:2">
@@ -28319,7 +28319,7 @@
         <v>3497</v>
       </c>
       <c r="B3497">
-        <v>5.153243915405631</v>
+        <v>5.15324391540563</v>
       </c>
     </row>
     <row r="3498" spans="1:2">
@@ -28511,7 +28511,7 @@
         <v>3521</v>
       </c>
       <c r="B3521">
-        <v>75.92503477287875</v>
+        <v>75.92503477287873</v>
       </c>
     </row>
     <row r="3522" spans="1:2">
@@ -29191,7 +29191,7 @@
         <v>3606</v>
       </c>
       <c r="B3606">
-        <v>77.91264255707999</v>
+        <v>77.91264255707998</v>
       </c>
     </row>
     <row r="3607" spans="1:2">
@@ -29383,7 +29383,7 @@
         <v>3630</v>
       </c>
       <c r="B3630">
-        <v>66.13441058431918</v>
+        <v>66.13441058431917</v>
       </c>
     </row>
     <row r="3631" spans="1:2">
@@ -29695,7 +29695,7 @@
         <v>3669</v>
       </c>
       <c r="B3669">
-        <v>6.68878962247175</v>
+        <v>6.688789622471749</v>
       </c>
     </row>
     <row r="3670" spans="1:2">
@@ -29871,7 +29871,7 @@
         <v>3691</v>
       </c>
       <c r="B3691">
-        <v>69.74739034893625</v>
+        <v>69.74739034893624</v>
       </c>
     </row>
     <row r="3692" spans="1:2">
@@ -31039,7 +31039,7 @@
         <v>3837</v>
       </c>
       <c r="B3837">
-        <v>5.629337817710987</v>
+        <v>5.629337817710986</v>
       </c>
     </row>
     <row r="3838" spans="1:2">
@@ -31215,7 +31215,7 @@
         <v>3859</v>
       </c>
       <c r="B3859">
-        <v>33.93616092179048</v>
+        <v>33.93616092179047</v>
       </c>
     </row>
     <row r="3860" spans="1:2">
@@ -31311,7 +31311,7 @@
         <v>3871</v>
       </c>
       <c r="B3871">
-        <v>141.5837910614506</v>
+        <v>141.5837910614505</v>
       </c>
     </row>
     <row r="3872" spans="1:2">
@@ -31695,7 +31695,7 @@
         <v>3919</v>
       </c>
       <c r="B3919">
-        <v>56.487977346781</v>
+        <v>56.48797734678099</v>
       </c>
     </row>
     <row r="3920" spans="1:2">
@@ -32375,7 +32375,7 @@
         <v>4004</v>
       </c>
       <c r="B4004">
-        <v>7.526298729654276</v>
+        <v>7.526298729654275</v>
       </c>
     </row>
     <row r="4005" spans="1:2">
@@ -32383,7 +32383,7 @@
         <v>4005</v>
       </c>
       <c r="B4005">
-        <v>0.8620391531184811</v>
+        <v>0.862039153118481</v>
       </c>
     </row>
     <row r="4006" spans="1:2">
@@ -32551,7 +32551,7 @@
         <v>4026</v>
       </c>
       <c r="B4026">
-        <v>52.67951919937682</v>
+        <v>52.67951919937681</v>
       </c>
     </row>
     <row r="4027" spans="1:2">
@@ -33039,7 +33039,7 @@
         <v>4087</v>
       </c>
       <c r="B4087">
-        <v>105.139821261835</v>
+        <v>105.1398212618349</v>
       </c>
     </row>
     <row r="4088" spans="1:2">
@@ -33423,7 +33423,7 @@
         <v>4135</v>
       </c>
       <c r="B4135">
-        <v>75.39838611640431</v>
+        <v>75.3983861164043</v>
       </c>
     </row>
     <row r="4136" spans="1:2">
@@ -33463,7 +33463,7 @@
         <v>4140</v>
       </c>
       <c r="B4140">
-        <v>120.3185564961834</v>
+        <v>120.3185564961833</v>
       </c>
     </row>
     <row r="4141" spans="1:2">
@@ -33927,7 +33927,7 @@
         <v>4198</v>
       </c>
       <c r="B4198">
-        <v>5.798820799368843</v>
+        <v>5.798820799368842</v>
       </c>
     </row>
     <row r="4199" spans="1:2">
@@ -34247,7 +34247,7 @@
         <v>4238</v>
       </c>
       <c r="B4238">
-        <v>126.9319975546153</v>
+        <v>126.9319975546152</v>
       </c>
     </row>
     <row r="4239" spans="1:2">
@@ -34655,7 +34655,7 @@
         <v>4289</v>
       </c>
       <c r="B4289">
-        <v>208.9757694726656</v>
+        <v>208.9757694726655</v>
       </c>
     </row>
     <row r="4290" spans="1:2">
@@ -34767,7 +34767,7 @@
         <v>4303</v>
       </c>
       <c r="B4303">
-        <v>118.6216751823342</v>
+        <v>118.6216751823341</v>
       </c>
     </row>
     <row r="4304" spans="1:2">
@@ -35031,7 +35031,7 @@
         <v>4336</v>
       </c>
       <c r="B4336">
-        <v>48.06042655903536</v>
+        <v>48.06042655903535</v>
       </c>
     </row>
     <row r="4337" spans="1:2">
@@ -35071,7 +35071,7 @@
         <v>4341</v>
       </c>
       <c r="B4341">
-        <v>19.81157290640308</v>
+        <v>19.81157290640307</v>
       </c>
     </row>
     <row r="4342" spans="1:2">
@@ -35095,7 +35095,7 @@
         <v>4344</v>
       </c>
       <c r="B4344">
-        <v>4.885376986069161</v>
+        <v>4.88537698606916</v>
       </c>
     </row>
     <row r="4345" spans="1:2">
@@ -35215,7 +35215,7 @@
         <v>4359</v>
       </c>
       <c r="B4359">
-        <v>65.2229596540824</v>
+        <v>65.22295965408239</v>
       </c>
     </row>
     <row r="4360" spans="1:2">
@@ -35303,7 +35303,7 @@
         <v>4370</v>
       </c>
       <c r="B4370">
-        <v>3.719130094820205</v>
+        <v>3.719130094820204</v>
       </c>
     </row>
     <row r="4371" spans="1:2">
@@ -35607,7 +35607,7 @@
         <v>4408</v>
       </c>
       <c r="B4408">
-        <v>164.1866018471682</v>
+        <v>164.1866018471681</v>
       </c>
     </row>
     <row r="4409" spans="1:2">
@@ -35799,7 +35799,7 @@
         <v>4432</v>
       </c>
       <c r="B4432">
-        <v>7.482045002816413</v>
+        <v>7.482045002816412</v>
       </c>
     </row>
     <row r="4433" spans="1:2">
@@ -36367,7 +36367,7 @@
         <v>4503</v>
       </c>
       <c r="B4503">
-        <v>7.298553225510545</v>
+        <v>7.298553225510544</v>
       </c>
     </row>
     <row r="4504" spans="1:2">
@@ -36391,7 +36391,7 @@
         <v>4506</v>
       </c>
       <c r="B4506">
-        <v>53.13260702514726</v>
+        <v>53.13260702514725</v>
       </c>
     </row>
     <row r="4507" spans="1:2">
@@ -36631,7 +36631,7 @@
         <v>4536</v>
       </c>
       <c r="B4536">
-        <v>8.377640789861619</v>
+        <v>8.377640789861617</v>
       </c>
     </row>
     <row r="4537" spans="1:2">
@@ -36639,7 +36639,7 @@
         <v>4537</v>
       </c>
       <c r="B4537">
-        <v>5.939758661861084</v>
+        <v>5.939758661861083</v>
       </c>
     </row>
     <row r="4538" spans="1:2">
@@ -36679,7 +36679,7 @@
         <v>4542</v>
       </c>
       <c r="B4542">
-        <v>219.8457742966149</v>
+        <v>219.8457742966148</v>
       </c>
     </row>
     <row r="4543" spans="1:2">
@@ -37119,7 +37119,7 @@
         <v>4597</v>
       </c>
       <c r="B4597">
-        <v>148.280757365901</v>
+        <v>148.2807573659009</v>
       </c>
     </row>
     <row r="4598" spans="1:2">
@@ -37135,7 +37135,7 @@
         <v>4599</v>
       </c>
       <c r="B4599">
-        <v>173.8579461229926</v>
+        <v>173.8579461229925</v>
       </c>
     </row>
     <row r="4600" spans="1:2">
@@ -37463,7 +37463,7 @@
         <v>4640</v>
       </c>
       <c r="B4640">
-        <v>72.02513846141223</v>
+        <v>72.02513846141221</v>
       </c>
     </row>
     <row r="4641" spans="1:2">
@@ -37471,7 +37471,7 @@
         <v>4641</v>
       </c>
       <c r="B4641">
-        <v>83.32126857557512</v>
+        <v>83.3212685755751</v>
       </c>
     </row>
     <row r="4642" spans="1:2">
@@ -37503,7 +37503,7 @@
         <v>4645</v>
       </c>
       <c r="B4645">
-        <v>95.94266592656462</v>
+        <v>95.9426659265646</v>
       </c>
     </row>
     <row r="4646" spans="1:2">
@@ -37759,7 +37759,7 @@
         <v>4677</v>
       </c>
       <c r="B4677">
-        <v>17.8167262675469</v>
+        <v>17.81672626754689</v>
       </c>
     </row>
     <row r="4678" spans="1:2">
@@ -37791,7 +37791,7 @@
         <v>4681</v>
       </c>
       <c r="B4681">
-        <v>3.193126194630822</v>
+        <v>3.193126194630821</v>
       </c>
     </row>
     <row r="4682" spans="1:2">
@@ -37847,7 +37847,7 @@
         <v>4688</v>
       </c>
       <c r="B4688">
-        <v>18.72345875406124</v>
+        <v>18.72345875406123</v>
       </c>
     </row>
     <row r="4689" spans="1:2">
@@ -38055,7 +38055,7 @@
         <v>4714</v>
       </c>
       <c r="B4714">
-        <v>220.8624377297311</v>
+        <v>220.862437729731</v>
       </c>
     </row>
     <row r="4715" spans="1:2">
@@ -38215,7 +38215,7 @@
         <v>4734</v>
       </c>
       <c r="B4734">
-        <v>181.8324090849678</v>
+        <v>181.8324090849677</v>
       </c>
     </row>
     <row r="4735" spans="1:2">
@@ -38247,7 +38247,7 @@
         <v>4738</v>
       </c>
       <c r="B4738">
-        <v>176.5304609245454</v>
+        <v>176.5304609245453</v>
       </c>
     </row>
     <row r="4739" spans="1:2">
@@ -38447,7 +38447,7 @@
         <v>4763</v>
       </c>
       <c r="B4763">
-        <v>153.7647026413321</v>
+        <v>153.764702641332</v>
       </c>
     </row>
     <row r="4764" spans="1:2">
@@ -38607,7 +38607,7 @@
         <v>4783</v>
       </c>
       <c r="B4783">
-        <v>89.18562005918864</v>
+        <v>89.18562005918862</v>
       </c>
     </row>
     <row r="4784" spans="1:2">
@@ -38799,7 +38799,7 @@
         <v>4807</v>
       </c>
       <c r="B4807">
-        <v>90.85729726371297</v>
+        <v>90.85729726371294</v>
       </c>
     </row>
     <row r="4808" spans="1:2">
@@ -39231,7 +39231,7 @@
         <v>4861</v>
       </c>
       <c r="B4861">
-        <v>10.02897886430284</v>
+        <v>10.02897886430283</v>
       </c>
     </row>
     <row r="4862" spans="1:2">
@@ -39255,7 +39255,7 @@
         <v>4864</v>
       </c>
       <c r="B4864">
-        <v>35.26846186354496</v>
+        <v>35.26846186354495</v>
       </c>
     </row>
     <row r="4865" spans="1:2">
@@ -39271,7 +39271,7 @@
         <v>4866</v>
       </c>
       <c r="B4866">
-        <v>38.00984835918318</v>
+        <v>38.00984835918317</v>
       </c>
     </row>
     <row r="4867" spans="1:2">
@@ -39383,7 +39383,7 @@
         <v>4880</v>
       </c>
       <c r="B4880">
-        <v>178.112751462278</v>
+        <v>178.1127514622779</v>
       </c>
     </row>
     <row r="4881" spans="1:2">
@@ -39391,7 +39391,7 @@
         <v>4881</v>
       </c>
       <c r="B4881">
-        <v>188.706097225731</v>
+        <v>188.7060972257309</v>
       </c>
     </row>
     <row r="4882" spans="1:2">
@@ -39559,7 +39559,7 @@
         <v>4902</v>
       </c>
       <c r="B4902">
-        <v>136.9295298964698</v>
+        <v>136.9295298964697</v>
       </c>
     </row>
     <row r="4903" spans="1:2">
@@ -39759,7 +39759,7 @@
         <v>4927</v>
       </c>
       <c r="B4927">
-        <v>101.1903959448347</v>
+        <v>101.1903959448346</v>
       </c>
     </row>
     <row r="4928" spans="1:2">
@@ -39967,7 +39967,7 @@
         <v>4953</v>
       </c>
       <c r="B4953">
-        <v>124.2700333104543</v>
+        <v>124.2700333104542</v>
       </c>
     </row>
     <row r="4954" spans="1:2">
@@ -40023,7 +40023,7 @@
         <v>4960</v>
       </c>
       <c r="B4960">
-        <v>164.4746906781723</v>
+        <v>164.4746906781722</v>
       </c>
     </row>
     <row r="4961" spans="1:2">
@@ -40151,7 +40151,7 @@
         <v>4976</v>
       </c>
       <c r="B4976">
-        <v>131.8851911790307</v>
+        <v>131.8851911790306</v>
       </c>
     </row>
     <row r="4977" spans="1:2">
@@ -40423,7 +40423,7 @@
         <v>5010</v>
       </c>
       <c r="B5010">
-        <v>67.94324503493701</v>
+        <v>67.94324503493699</v>
       </c>
     </row>
     <row r="5011" spans="1:2">
@@ -40495,7 +40495,7 @@
         <v>5019</v>
       </c>
       <c r="B5019">
-        <v>1.637724924695397</v>
+        <v>1.637724924695396</v>
       </c>
     </row>
     <row r="5020" spans="1:2">
@@ -40567,7 +40567,7 @@
         <v>5028</v>
       </c>
       <c r="B5028">
-        <v>44.71531372375476</v>
+        <v>44.71531372375475</v>
       </c>
     </row>
     <row r="5029" spans="1:2">
@@ -40575,7 +40575,7 @@
         <v>5029</v>
       </c>
       <c r="B5029">
-        <v>48.80424085515785</v>
+        <v>48.80424085515784</v>
       </c>
     </row>
     <row r="5030" spans="1:2">
@@ -40687,7 +40687,7 @@
         <v>5043</v>
       </c>
       <c r="B5043">
-        <v>10.29221527122846</v>
+        <v>10.29221527122845</v>
       </c>
     </row>
     <row r="5044" spans="1:2">
@@ -40895,7 +40895,7 @@
         <v>5069</v>
       </c>
       <c r="B5069">
-        <v>256.7114733208642</v>
+        <v>256.7114733208641</v>
       </c>
     </row>
     <row r="5070" spans="1:2">
@@ -40943,7 +40943,7 @@
         <v>5075</v>
       </c>
       <c r="B5075">
-        <v>164.4588648420846</v>
+        <v>164.4588648420845</v>
       </c>
     </row>
     <row r="5076" spans="1:2">
@@ -41295,7 +41295,7 @@
         <v>5119</v>
       </c>
       <c r="B5119">
-        <v>147.9296582615847</v>
+        <v>147.9296582615846</v>
       </c>
     </row>
     <row r="5120" spans="1:2">
@@ -41535,7 +41535,7 @@
         <v>5149</v>
       </c>
       <c r="B5149">
-        <v>148.8296794213137</v>
+        <v>148.8296794213136</v>
       </c>
     </row>
     <row r="5150" spans="1:2">
@@ -41807,7 +41807,7 @@
         <v>5183</v>
       </c>
       <c r="B5183">
-        <v>25.30806162228888</v>
+        <v>25.30806162228887</v>
       </c>
     </row>
     <row r="5184" spans="1:2">
@@ -41959,7 +41959,7 @@
         <v>5202</v>
       </c>
       <c r="B5202">
-        <v>83.88425804084356</v>
+        <v>83.88425804084355</v>
       </c>
     </row>
     <row r="5203" spans="1:2">
@@ -42343,7 +42343,7 @@
         <v>5250</v>
       </c>
       <c r="B5250">
-        <v>163.7619419121479</v>
+        <v>163.7619419121478</v>
       </c>
     </row>
     <row r="5251" spans="1:2">
@@ -42439,7 +42439,7 @@
         <v>5262</v>
       </c>
       <c r="B5262">
-        <v>76.81714301456388</v>
+        <v>76.81714301456387</v>
       </c>
     </row>
     <row r="5263" spans="1:2">
@@ -42839,7 +42839,7 @@
         <v>5312</v>
       </c>
       <c r="B5312">
-        <v>56.02463203465742</v>
+        <v>56.02463203465741</v>
       </c>
     </row>
     <row r="5313" spans="1:2">
@@ -43487,7 +43487,7 @@
         <v>5393</v>
       </c>
       <c r="B5393">
-        <v>152.6176225960116</v>
+        <v>152.6176225960115</v>
       </c>
     </row>
     <row r="5394" spans="1:2">
@@ -43615,7 +43615,7 @@
         <v>5409</v>
       </c>
       <c r="B5409">
-        <v>136.0506098515244</v>
+        <v>136.0506098515243</v>
       </c>
     </row>
     <row r="5410" spans="1:2">
@@ -43863,7 +43863,7 @@
         <v>5440</v>
       </c>
       <c r="B5440">
-        <v>135.0559267463078</v>
+        <v>135.0559267463077</v>
       </c>
     </row>
     <row r="5441" spans="1:2">
@@ -43983,7 +43983,7 @@
         <v>5455</v>
       </c>
       <c r="B5455">
-        <v>80.55204033126407</v>
+        <v>80.55204033126405</v>
       </c>
     </row>
     <row r="5456" spans="1:2">
@@ -44247,7 +44247,7 @@
         <v>5488</v>
       </c>
       <c r="B5488">
-        <v>152.4083698744074</v>
+        <v>152.4083698744073</v>
       </c>
     </row>
     <row r="5489" spans="1:2">
@@ -44447,7 +44447,7 @@
         <v>5513</v>
       </c>
       <c r="B5513">
-        <v>39.78029050373637</v>
+        <v>39.78029050373636</v>
       </c>
     </row>
     <row r="5514" spans="1:2">
@@ -44455,7 +44455,7 @@
         <v>5514</v>
       </c>
       <c r="B5514">
-        <v>35.84170881516655</v>
+        <v>35.84170881516654</v>
       </c>
     </row>
     <row r="5515" spans="1:2">
@@ -44631,7 +44631,7 @@
         <v>5536</v>
       </c>
       <c r="B5536">
-        <v>61.06369547340059</v>
+        <v>61.06369547340058</v>
       </c>
     </row>
     <row r="5537" spans="1:2">
@@ -44671,7 +44671,7 @@
         <v>5541</v>
       </c>
       <c r="B5541">
-        <v>19.75656347244634</v>
+        <v>19.75656347244633</v>
       </c>
     </row>
     <row r="5542" spans="1:2">
@@ -44711,7 +44711,7 @@
         <v>5546</v>
       </c>
       <c r="B5546">
-        <v>0.7187186230819234</v>
+        <v>0.7187186230819232</v>
       </c>
     </row>
     <row r="5547" spans="1:2">
@@ -44839,7 +44839,7 @@
         <v>5562</v>
       </c>
       <c r="B5562">
-        <v>193.1352798330199</v>
+        <v>193.1352798330198</v>
       </c>
     </row>
     <row r="5563" spans="1:2">
@@ -44959,7 +44959,7 @@
         <v>5577</v>
       </c>
       <c r="B5577">
-        <v>99.92139834743104</v>
+        <v>99.92139834743102</v>
       </c>
     </row>
     <row r="5578" spans="1:2">
@@ -45167,7 +45167,7 @@
         <v>5603</v>
       </c>
       <c r="B5603">
-        <v>78.83464404470858</v>
+        <v>78.83464404470857</v>
       </c>
     </row>
     <row r="5604" spans="1:2">
@@ -45191,7 +45191,7 @@
         <v>5606</v>
       </c>
       <c r="B5606">
-        <v>95.41543112801286</v>
+        <v>95.41543112801284</v>
       </c>
     </row>
     <row r="5607" spans="1:2">
@@ -45567,7 +45567,7 @@
         <v>5653</v>
       </c>
       <c r="B5653">
-        <v>99.91143393211657</v>
+        <v>99.91143393211654</v>
       </c>
     </row>
     <row r="5654" spans="1:2">
@@ -45927,7 +45927,7 @@
         <v>5698</v>
       </c>
       <c r="B5698">
-        <v>19.86458945729692</v>
+        <v>19.86458945729691</v>
       </c>
     </row>
     <row r="5699" spans="1:2">
@@ -45959,7 +45959,7 @@
         <v>5702</v>
       </c>
       <c r="B5702">
-        <v>62.33005543145626</v>
+        <v>62.33005543145625</v>
       </c>
     </row>
     <row r="5703" spans="1:2">
@@ -46495,7 +46495,7 @@
         <v>5769</v>
       </c>
       <c r="B5769">
-        <v>104.8312174581246</v>
+        <v>104.8312174581245</v>
       </c>
     </row>
     <row r="5770" spans="1:2">
@@ -46551,7 +46551,7 @@
         <v>5776</v>
       </c>
       <c r="B5776">
-        <v>172.5227144708515</v>
+        <v>172.5227144708514</v>
       </c>
     </row>
     <row r="5777" spans="1:2">
@@ -46679,7 +46679,7 @@
         <v>5792</v>
       </c>
       <c r="B5792">
-        <v>79.51486192544156</v>
+        <v>79.51486192544155</v>
       </c>
     </row>
     <row r="5793" spans="1:2">
@@ -46863,7 +46863,7 @@
         <v>5815</v>
       </c>
       <c r="B5815">
-        <v>31.97873945457136</v>
+        <v>31.97873945457135</v>
       </c>
     </row>
     <row r="5816" spans="1:2">
@@ -46879,7 +46879,7 @@
         <v>5817</v>
       </c>
       <c r="B5817">
-        <v>74.50627787471917</v>
+        <v>74.50627787471916</v>
       </c>
     </row>
     <row r="5818" spans="1:2">
@@ -47167,7 +47167,7 @@
         <v>5853</v>
       </c>
       <c r="B5853">
-        <v>2.141798319061751</v>
+        <v>2.14179831906175</v>
       </c>
     </row>
     <row r="5854" spans="1:2">
@@ -47383,7 +47383,7 @@
         <v>5880</v>
       </c>
       <c r="B5880">
-        <v>3.217245941112651</v>
+        <v>3.21724594111265</v>
       </c>
     </row>
     <row r="5881" spans="1:2">
@@ -47519,7 +47519,7 @@
         <v>5897</v>
       </c>
       <c r="B5897">
-        <v>81.6958965951593</v>
+        <v>81.69589659515928</v>
       </c>
     </row>
     <row r="5898" spans="1:2">
@@ -47823,7 +47823,7 @@
         <v>5935</v>
       </c>
       <c r="B5935">
-        <v>71.8138342425374</v>
+        <v>71.81383424253738</v>
       </c>
     </row>
     <row r="5936" spans="1:2">
@@ -47831,7 +47831,7 @@
         <v>5936</v>
       </c>
       <c r="B5936">
-        <v>92.13362163708312</v>
+        <v>92.1336216370831</v>
       </c>
     </row>
     <row r="5937" spans="1:2">
@@ -47847,7 +47847,7 @@
         <v>5938</v>
       </c>
       <c r="B5938">
-        <v>126.8804170518109</v>
+        <v>126.8804170518108</v>
       </c>
     </row>
     <row r="5939" spans="1:2">
@@ -48023,7 +48023,7 @@
         <v>5960</v>
       </c>
       <c r="B5960">
-        <v>88.61999295457224</v>
+        <v>88.61999295457223</v>
       </c>
     </row>
     <row r="5961" spans="1:2">
@@ -48047,7 +48047,7 @@
         <v>5963</v>
       </c>
       <c r="B5963">
-        <v>96.77000546870561</v>
+        <v>96.77000546870558</v>
       </c>
     </row>
     <row r="5964" spans="1:2">
@@ -48191,7 +48191,7 @@
         <v>5981</v>
       </c>
       <c r="B5981">
-        <v>170.1488390576946</v>
+        <v>170.1488390576945</v>
       </c>
     </row>
     <row r="5982" spans="1:2">
@@ -48463,7 +48463,7 @@
         <v>6015</v>
       </c>
       <c r="B6015">
-        <v>7.292750418945051</v>
+        <v>7.29275041894505</v>
       </c>
     </row>
     <row r="6016" spans="1:2">
@@ -48511,7 +48511,7 @@
         <v>6021</v>
       </c>
       <c r="B6021">
-        <v>0.9892642217117578</v>
+        <v>0.9892642217117577</v>
       </c>
     </row>
     <row r="6022" spans="1:2">
@@ -48623,7 +48623,7 @@
         <v>6035</v>
       </c>
       <c r="B6035">
-        <v>4.917702721633509</v>
+        <v>4.917702721633508</v>
       </c>
     </row>
     <row r="6036" spans="1:2">
@@ -48663,7 +48663,7 @@
         <v>6040</v>
       </c>
       <c r="B6040">
-        <v>39.48253032845644</v>
+        <v>39.48253032845643</v>
       </c>
     </row>
     <row r="6041" spans="1:2">
@@ -48959,7 +48959,7 @@
         <v>6077</v>
       </c>
       <c r="B6077">
-        <v>132.5873893876633</v>
+        <v>132.5873893876632</v>
       </c>
     </row>
     <row r="6078" spans="1:2">
@@ -48983,7 +48983,7 @@
         <v>6080</v>
       </c>
       <c r="B6080">
-        <v>76.131649855135</v>
+        <v>76.13164985513498</v>
       </c>
     </row>
     <row r="6081" spans="1:2">
@@ -49167,7 +49167,7 @@
         <v>6103</v>
       </c>
       <c r="B6103">
-        <v>53.367356927115</v>
+        <v>53.36735692711499</v>
       </c>
     </row>
     <row r="6104" spans="1:2">
@@ -49199,7 +49199,7 @@
         <v>6107</v>
       </c>
       <c r="B6107">
-        <v>99.59286571309168</v>
+        <v>99.59286571309164</v>
       </c>
     </row>
     <row r="6108" spans="1:2">
@@ -49207,7 +49207,7 @@
         <v>6108</v>
       </c>
       <c r="B6108">
-        <v>95.12675615493144</v>
+        <v>95.1267561549314</v>
       </c>
     </row>
     <row r="6109" spans="1:2">
@@ -49351,7 +49351,7 @@
         <v>6126</v>
       </c>
       <c r="B6126">
-        <v>47.94319814357082</v>
+        <v>47.94319814357081</v>
       </c>
     </row>
     <row r="6127" spans="1:2">
@@ -49559,7 +49559,7 @@
         <v>6152</v>
       </c>
       <c r="B6152">
-        <v>67.90280123160174</v>
+        <v>67.90280123160173</v>
       </c>
     </row>
     <row r="6153" spans="1:2">
@@ -49607,7 +49607,7 @@
         <v>6158</v>
       </c>
       <c r="B6158">
-        <v>127.1837455768254</v>
+        <v>127.1837455768253</v>
       </c>
     </row>
     <row r="6159" spans="1:2">
@@ -49975,7 +49975,7 @@
         <v>6204</v>
       </c>
       <c r="B6204">
-        <v>0.5527671474399366</v>
+        <v>0.5527671474399365</v>
       </c>
     </row>
     <row r="6205" spans="1:2">
@@ -50039,7 +50039,7 @@
         <v>6212</v>
       </c>
       <c r="B6212">
-        <v>9.780806308764408</v>
+        <v>9.780806308764406</v>
       </c>
     </row>
     <row r="6213" spans="1:2">
@@ -50143,7 +50143,7 @@
         <v>6225</v>
       </c>
       <c r="B6225">
-        <v>144.4034275244114</v>
+        <v>144.4034275244113</v>
       </c>
     </row>
     <row r="6226" spans="1:2">
@@ -50175,7 +50175,7 @@
         <v>6229</v>
       </c>
       <c r="B6229">
-        <v>133.2424031590714</v>
+        <v>133.2424031590713</v>
       </c>
     </row>
     <row r="6230" spans="1:2">
@@ -50319,7 +50319,7 @@
         <v>6247</v>
       </c>
       <c r="B6247">
-        <v>98.73504678292991</v>
+        <v>98.7350467829299</v>
       </c>
     </row>
     <row r="6248" spans="1:2">
@@ -50583,7 +50583,7 @@
         <v>6280</v>
       </c>
       <c r="B6280">
-        <v>146.7090173855602</v>
+        <v>146.7090173855601</v>
       </c>
     </row>
     <row r="6281" spans="1:2">
@@ -50695,7 +50695,7 @@
         <v>6294</v>
       </c>
       <c r="B6294">
-        <v>6.955601496069039</v>
+        <v>6.955601496069038</v>
       </c>
     </row>
     <row r="6295" spans="1:2">
@@ -50783,7 +50783,7 @@
         <v>6305</v>
       </c>
       <c r="B6305">
-        <v>79.04125912696483</v>
+        <v>79.04125912696482</v>
       </c>
     </row>
     <row r="6306" spans="1:2">
@@ -51479,7 +51479,7 @@
         <v>6392</v>
       </c>
       <c r="B6392">
-        <v>32.92477276737018</v>
+        <v>32.92477276737017</v>
       </c>
     </row>
     <row r="6393" spans="1:2">
@@ -51527,7 +51527,7 @@
         <v>6398</v>
       </c>
       <c r="B6398">
-        <v>77.18934323366379</v>
+        <v>77.18934323366378</v>
       </c>
     </row>
     <row r="6399" spans="1:2">
@@ -51703,7 +51703,7 @@
         <v>6420</v>
       </c>
       <c r="B6420">
-        <v>41.91560609142293</v>
+        <v>41.91560609142292</v>
       </c>
     </row>
     <row r="6421" spans="1:2">
@@ -51847,7 +51847,7 @@
         <v>6438</v>
       </c>
       <c r="B6438">
-        <v>18.21108265716961</v>
+        <v>18.2110826571696</v>
       </c>
     </row>
     <row r="6439" spans="1:2">
@@ -52095,7 +52095,7 @@
         <v>6469</v>
       </c>
       <c r="B6469">
-        <v>95.50364551064992</v>
+        <v>95.5036455106499</v>
       </c>
     </row>
     <row r="6470" spans="1:2">
@@ -52223,7 +52223,7 @@
         <v>6485</v>
       </c>
       <c r="B6485">
-        <v>87.88936685518951</v>
+        <v>87.88936685518949</v>
       </c>
     </row>
     <row r="6486" spans="1:2">
@@ -52295,7 +52295,7 @@
         <v>6494</v>
       </c>
       <c r="B6494">
-        <v>70.0858873985901</v>
+        <v>70.08588739859009</v>
       </c>
     </row>
     <row r="6495" spans="1:2">
@@ -53015,7 +53015,7 @@
         <v>6584</v>
       </c>
       <c r="B6584">
-        <v>4.201583638664511</v>
+        <v>4.20158363866451</v>
       </c>
     </row>
     <row r="6585" spans="1:2">
@@ -53423,7 +53423,7 @@
         <v>6635</v>
       </c>
       <c r="B6635">
-        <v>22.60333831358719</v>
+        <v>22.60333831358718</v>
       </c>
     </row>
     <row r="6636" spans="1:2">
@@ -53463,7 +53463,7 @@
         <v>6640</v>
       </c>
       <c r="B6640">
-        <v>88.50803981780361</v>
+        <v>88.50803981780359</v>
       </c>
     </row>
     <row r="6641" spans="1:2">
@@ -53479,7 +53479,7 @@
         <v>6642</v>
       </c>
       <c r="B6642">
-        <v>57.20629446253996</v>
+        <v>57.20629446253995</v>
       </c>
     </row>
     <row r="6643" spans="1:2">
@@ -53623,7 +53623,7 @@
         <v>6660</v>
       </c>
       <c r="B6660">
-        <v>66.76422024640242</v>
+        <v>66.7642202464024</v>
       </c>
     </row>
     <row r="6661" spans="1:2">
@@ -53647,7 +53647,7 @@
         <v>6663</v>
       </c>
       <c r="B6663">
-        <v>103.505950221298</v>
+        <v>103.5059502212979</v>
       </c>
     </row>
     <row r="6664" spans="1:2">
@@ -54039,7 +54039,7 @@
         <v>6712</v>
       </c>
       <c r="B6712">
-        <v>4.468366205157934</v>
+        <v>4.468366205157933</v>
       </c>
     </row>
     <row r="6713" spans="1:2">
@@ -54575,7 +54575,7 @@
         <v>6779</v>
       </c>
       <c r="B6779">
-        <v>36.80474024820773</v>
+        <v>36.80474024820772</v>
       </c>
     </row>
     <row r="6780" spans="1:2">
@@ -54623,7 +54623,7 @@
         <v>6785</v>
       </c>
       <c r="B6785">
-        <v>71.03367913762089</v>
+        <v>71.03367913762088</v>
       </c>
     </row>
     <row r="6786" spans="1:2">
@@ -54959,7 +54959,7 @@
         <v>6827</v>
       </c>
       <c r="B6827">
-        <v>2.222592142999911</v>
+        <v>2.22259214299991</v>
       </c>
     </row>
     <row r="6828" spans="1:2">
@@ -54975,7 +54975,7 @@
         <v>6829</v>
       </c>
       <c r="B6829">
-        <v>5.91833516893494</v>
+        <v>5.918335168934939</v>
       </c>
     </row>
     <row r="6830" spans="1:2">
@@ -54999,7 +54999,7 @@
         <v>6832</v>
       </c>
       <c r="B6832">
-        <v>30.33197328833326</v>
+        <v>30.33197328833325</v>
       </c>
     </row>
     <row r="6833" spans="1:2">
@@ -55575,7 +55575,7 @@
         <v>6904</v>
       </c>
       <c r="B6904">
-        <v>43.27076657419299</v>
+        <v>43.27076657419298</v>
       </c>
     </row>
     <row r="6905" spans="1:2">
@@ -55767,7 +55767,7 @@
         <v>6928</v>
       </c>
       <c r="B6928">
-        <v>60.27621359251755</v>
+        <v>60.27621359251754</v>
       </c>
     </row>
     <row r="6929" spans="1:2">
@@ -55919,7 +55919,7 @@
         <v>6947</v>
       </c>
       <c r="B6947">
-        <v>6.362367099610744</v>
+        <v>6.362367099610743</v>
       </c>
     </row>
     <row r="6948" spans="1:2">
@@ -56095,7 +56095,7 @@
         <v>6969</v>
       </c>
       <c r="B6969">
-        <v>6.753118715457915</v>
+        <v>6.753118715457914</v>
       </c>
     </row>
     <row r="6970" spans="1:2">
@@ -56127,7 +56127,7 @@
         <v>6973</v>
       </c>
       <c r="B6973">
-        <v>50.20541349099774</v>
+        <v>50.20541349099773</v>
       </c>
     </row>
     <row r="6974" spans="1:2">
@@ -56295,7 +56295,7 @@
         <v>6994</v>
       </c>
       <c r="B6994">
-        <v>47.55106909384194</v>
+        <v>47.55106909384193</v>
       </c>
     </row>
     <row r="6995" spans="1:2">
@@ -56351,7 +56351,7 @@
         <v>7001</v>
       </c>
       <c r="B7001">
-        <v>94.30469189148636</v>
+        <v>94.30469189148634</v>
       </c>
     </row>
     <row r="7002" spans="1:2">
@@ -56887,7 +56887,7 @@
         <v>7068</v>
       </c>
       <c r="B7068">
-        <v>87.40521349932096</v>
+        <v>87.40521349932095</v>
       </c>
     </row>
     <row r="7069" spans="1:2">
@@ -57103,7 +57103,7 @@
         <v>7095</v>
       </c>
       <c r="B7095">
-        <v>85.46918621792412</v>
+        <v>85.4691862179241</v>
       </c>
     </row>
     <row r="7096" spans="1:2">
@@ -57127,7 +57127,7 @@
         <v>7098</v>
       </c>
       <c r="B7098">
-        <v>68.89894969201166</v>
+        <v>68.89894969201164</v>
       </c>
     </row>
     <row r="7099" spans="1:2">
@@ -57263,7 +57263,7 @@
         <v>7115</v>
       </c>
       <c r="B7115">
-        <v>87.4125402752875</v>
+        <v>87.41254027528748</v>
       </c>
     </row>
     <row r="7116" spans="1:2">
@@ -57423,7 +57423,7 @@
         <v>7135</v>
       </c>
       <c r="B7135">
-        <v>6.415735335750975</v>
+        <v>6.415735335750974</v>
       </c>
     </row>
     <row r="7136" spans="1:2">
@@ -57503,7 +57503,7 @@
         <v>7145</v>
       </c>
       <c r="B7145">
-        <v>92.73177962699091</v>
+        <v>92.7317796269909</v>
       </c>
     </row>
     <row r="7146" spans="1:2">
@@ -58239,7 +58239,7 @@
         <v>7237</v>
       </c>
       <c r="B7237">
-        <v>4.818849860293036</v>
+        <v>4.818849860293035</v>
       </c>
     </row>
     <row r="7238" spans="1:2">
@@ -58263,7 +58263,7 @@
         <v>7240</v>
       </c>
       <c r="B7240">
-        <v>40.28994103996845</v>
+        <v>40.28994103996844</v>
       </c>
     </row>
     <row r="7241" spans="1:2">
@@ -58439,7 +58439,7 @@
         <v>7262</v>
       </c>
       <c r="B7262">
-        <v>3.592288949287574</v>
+        <v>3.592288949287573</v>
       </c>
     </row>
     <row r="7263" spans="1:2">
@@ -58807,7 +58807,7 @@
         <v>7308</v>
       </c>
       <c r="B7308">
-        <v>1.870092159118818</v>
+        <v>1.870092159118817</v>
       </c>
     </row>
     <row r="7309" spans="1:2">
@@ -59759,7 +59759,7 @@
         <v>7427</v>
       </c>
       <c r="B7427">
-        <v>0.5293009493743227</v>
+        <v>0.5293009493743226</v>
       </c>
     </row>
     <row r="7428" spans="1:2">
@@ -59791,7 +59791,7 @@
         <v>7431</v>
       </c>
       <c r="B7431">
-        <v>36.63915511136407</v>
+        <v>36.63915511136406</v>
       </c>
     </row>
     <row r="7432" spans="1:2">
@@ -59799,7 +59799,7 @@
         <v>7432</v>
       </c>
       <c r="B7432">
-        <v>43.4595043230909</v>
+        <v>43.45950432309089</v>
       </c>
     </row>
     <row r="7433" spans="1:2">
@@ -59999,7 +59999,7 @@
         <v>7457</v>
       </c>
       <c r="B7457">
-        <v>44.86536609554937</v>
+        <v>44.86536609554936</v>
       </c>
     </row>
     <row r="7458" spans="1:2">
@@ -61511,7 +61511,7 @@
         <v>7646</v>
       </c>
       <c r="B7646">
-        <v>0.2769802663546828</v>
+        <v>0.2769802663546827</v>
       </c>
     </row>
     <row r="7647" spans="1:2">
@@ -63023,7 +63023,7 @@
         <v>7835</v>
       </c>
       <c r="B7835">
-        <v>2.504828345361946</v>
+        <v>2.504828345361945</v>
       </c>
     </row>
     <row r="7836" spans="1:2">
@@ -63991,7 +63991,7 @@
         <v>7956</v>
       </c>
       <c r="B7956">
-        <v>5.713273363183596</v>
+        <v>5.713273363183595</v>
       </c>
     </row>
     <row r="7957" spans="1:2">
@@ -64199,7 +64199,7 @@
         <v>7982</v>
       </c>
       <c r="B7982">
-        <v>38.68508403225892</v>
+        <v>38.68508403225891</v>
       </c>
     </row>
     <row r="7983" spans="1:2">
@@ -65359,7 +65359,7 @@
         <v>8127</v>
       </c>
       <c r="B8127">
-        <v>0.3734281867518996</v>
+        <v>0.3734281867518995</v>
       </c>
     </row>
     <row r="8128" spans="1:2">
